--- a/public/templates/Student Template.xlsx
+++ b/public/templates/Student Template.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE31644-D0A5-44F4-9B94-3DE60A805016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,16 +86,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t>0, Project Member, Member</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> for Members</t>
     </r>
@@ -83,16 +105,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t>1, Project Manager, Manager</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> for Managers</t>
     </r>
@@ -100,23 +124,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">If no data is set, defaults to </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">member </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>role</t>
     </r>
@@ -125,28 +152,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -154,7 +189,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -164,42 +199,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -389,132 +429,262 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="29.25"/>
-    <col customWidth="1" min="5" max="5" width="30.75"/>
-    <col customWidth="1" min="6" max="6" width="16.13"/>
-    <col customWidth="1" min="7" max="7" width="51.63"/>
+    <col min="1" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="G3" s="4" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="G4" s="4" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="4" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="4" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="4" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="G10" s="4" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="G11" s="4" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="G13" s="4" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="G14" s="4" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="G15" s="4" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="G16" s="4" t="s">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="G17" s="4" t="s">
+    <row r="17" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="18" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G32" s="5"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1484,9 +1654,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:E1048576" name="Range1"/>
+  </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <dataValidations count="5">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="First name can only contain letters, spaces, hyphens, and apostrophes" promptTitle="Input" prompt="Enter first name (required, max 50 characters)" sqref="A3:A1048576" xr:uid="{45C7CD4B-9C09-46D1-96B8-6F5493D1002B}">
+      <formula1>AND(LEN(A3)&lt;=50,LEN(A3)&gt;0,NOT(ISNUMBER(A3)))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Middle name must be text (max 50 characters)" promptTitle="Input" prompt="Enter middle name (optional, max 50 characters)" sqref="B3:B1048576" xr:uid="{ED10D8B1-7D15-476E-A4E1-F7637C4D7DF2}">
+      <formula1>"OR(LEN(B3)=0,AND(LEN(B3)&lt;=50,NOT(ISNUMBER(B3))))"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Last name is required and must be text (max 50 characters)" promptTitle="Input" prompt="Enter last name (required, max 50 characters)" sqref="C3:C1048576" xr:uid="{43DD5898-119F-4818-9B28-2BFF11158B4F}">
+      <formula1>AND(LEN(C3)&lt;=50,LEN(C3)&gt;0,NOT(ISNUMBER(C3)))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid email format or email username too long (max 64 characters before @)" promptTitle="Input" prompt="Enter valid email address (required, max 100 characters)" sqref="D3:D1048576" xr:uid="{7202D316-13E1-429C-8007-5E6A404D315E}">
+      <formula1>AND(LEN(D3)&lt;=100,LEN(D3)&gt;0,ISNUMBER(SEARCH("@",D3)),ISNUMBER(SEARCH(".",D3)))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Please select a valid role" promptTitle="Input" prompt="Select role (required)" sqref="E3:E1048576" xr:uid="{D7E3D9C6-8C8A-493D-9202-35036B7B83F4}">
+      <formula1>"Project Member, Project Manager"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>